--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.46482166666667</v>
+        <v>5.106677666666667</v>
       </c>
       <c r="H2">
-        <v>40.394465</v>
+        <v>15.320033</v>
       </c>
       <c r="I2">
-        <v>0.4580736409596084</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="J2">
-        <v>0.4580736409596083</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03687233333333333</v>
+        <v>0.3947560000000001</v>
       </c>
       <c r="N2">
-        <v>0.110617</v>
+        <v>1.184268</v>
       </c>
       <c r="O2">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="P2">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="Q2">
-        <v>0.4964793927672222</v>
+        <v>2.015891648982667</v>
       </c>
       <c r="R2">
-        <v>4.468314534905</v>
+        <v>18.143024840844</v>
       </c>
       <c r="S2">
-        <v>0.01088647590121595</v>
+        <v>0.05018883663853415</v>
       </c>
       <c r="T2">
-        <v>0.01088647590121595</v>
+        <v>0.05018883663853414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.46482166666667</v>
+        <v>5.106677666666667</v>
       </c>
       <c r="H3">
-        <v>40.394465</v>
+        <v>15.320033</v>
       </c>
       <c r="I3">
-        <v>0.4580736409596084</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="J3">
-        <v>0.4580736409596083</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.874475</v>
       </c>
       <c r="O3">
-        <v>0.8324209479669633</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="P3">
-        <v>0.8324209479669634</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="Q3">
-        <v>17.38970497565278</v>
+        <v>6.595231650852779</v>
       </c>
       <c r="R3">
-        <v>156.507344780875</v>
+        <v>59.35708485767501</v>
       </c>
       <c r="S3">
-        <v>0.3813100944462756</v>
+        <v>0.1641988070564134</v>
       </c>
       <c r="T3">
-        <v>0.3813100944462756</v>
+        <v>0.1641988070564134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.46482166666667</v>
+        <v>5.106677666666667</v>
       </c>
       <c r="H4">
-        <v>40.394465</v>
+        <v>15.320033</v>
       </c>
       <c r="I4">
-        <v>0.4580736409596084</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="J4">
-        <v>0.4580736409596083</v>
+        <v>0.2427554644382946</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2231246666666667</v>
+        <v>0.2231246666666666</v>
       </c>
       <c r="N4">
-        <v>0.669374</v>
+        <v>0.6693739999999999</v>
       </c>
       <c r="O4">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="P4">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="Q4">
-        <v>3.004333846101111</v>
+        <v>1.139425752149111</v>
       </c>
       <c r="R4">
-        <v>27.03900461491</v>
+        <v>10.254831769342</v>
       </c>
       <c r="S4">
-        <v>0.06587707061211681</v>
+        <v>0.02836782074334707</v>
       </c>
       <c r="T4">
-        <v>0.06587707061211681</v>
+        <v>0.02836782074334707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.353913</v>
       </c>
       <c r="I5">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="J5">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03687233333333333</v>
+        <v>0.3947560000000001</v>
       </c>
       <c r="N5">
-        <v>0.110617</v>
+        <v>1.184268</v>
       </c>
       <c r="O5">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="P5">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="Q5">
-        <v>0.4713994215912222</v>
+        <v>5.046812426742667</v>
       </c>
       <c r="R5">
-        <v>4.242594794321</v>
+        <v>45.42131184068401</v>
       </c>
       <c r="S5">
-        <v>0.01033653867161833</v>
+        <v>0.1256484417498024</v>
       </c>
       <c r="T5">
-        <v>0.01033653867161833</v>
+        <v>0.1256484417498024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.353913</v>
       </c>
       <c r="I6">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="J6">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.874475</v>
       </c>
       <c r="O6">
-        <v>0.8324209479669633</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="P6">
-        <v>0.8324209479669634</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="Q6">
         <v>16.51125300785278</v>
@@ -818,10 +818,10 @@
         <v>148.601277070675</v>
       </c>
       <c r="S6">
-        <v>0.3620479733650201</v>
+        <v>0.4110739683488583</v>
       </c>
       <c r="T6">
-        <v>0.3620479733650201</v>
+        <v>0.4110739683488583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.353913</v>
       </c>
       <c r="I7">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="J7">
-        <v>0.4349337606763218</v>
+        <v>0.6077416388947038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2231246666666667</v>
+        <v>0.2231246666666666</v>
       </c>
       <c r="N7">
-        <v>0.669374</v>
+        <v>0.6693739999999999</v>
       </c>
       <c r="O7">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="P7">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="Q7">
         <v>2.852568017829111</v>
@@ -880,10 +880,10 @@
         <v>25.673112160462</v>
       </c>
       <c r="S7">
-        <v>0.06254924863968332</v>
+        <v>0.07101922879604299</v>
       </c>
       <c r="T7">
-        <v>0.06254924863968331</v>
+        <v>0.07101922879604299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.434965</v>
       </c>
       <c r="I8">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="J8">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03687233333333333</v>
+        <v>0.3947560000000001</v>
       </c>
       <c r="N8">
-        <v>0.110617</v>
+        <v>1.184268</v>
       </c>
       <c r="O8">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="P8">
-        <v>0.02376577678298649</v>
+        <v>0.2067464753251374</v>
       </c>
       <c r="Q8">
-        <v>0.1159630581561111</v>
+        <v>1.241503014513334</v>
       </c>
       <c r="R8">
-        <v>1.043667523405</v>
+        <v>11.17352713062</v>
       </c>
       <c r="S8">
-        <v>0.002542762210152207</v>
+        <v>0.03090919693680081</v>
       </c>
       <c r="T8">
-        <v>0.002542762210152206</v>
+        <v>0.03090919693680081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.434965</v>
       </c>
       <c r="I9">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="J9">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.874475</v>
       </c>
       <c r="O9">
-        <v>0.8324209479669633</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="P9">
-        <v>0.8324209479669634</v>
+        <v>0.676395925572051</v>
       </c>
       <c r="Q9">
         <v>4.061726224263889</v>
@@ -1004,10 +1004,10 @@
         <v>36.555536018375</v>
       </c>
       <c r="S9">
-        <v>0.08906288015566749</v>
+        <v>0.1011231501667792</v>
       </c>
       <c r="T9">
-        <v>0.0890628801556675</v>
+        <v>0.1011231501667792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.434965</v>
       </c>
       <c r="I10">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="J10">
-        <v>0.1069925983640697</v>
+        <v>0.1495028966670016</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2231246666666667</v>
+        <v>0.2231246666666666</v>
       </c>
       <c r="N10">
-        <v>0.669374</v>
+        <v>0.6693739999999999</v>
       </c>
       <c r="O10">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="P10">
-        <v>0.1438132752500502</v>
+        <v>0.1168575991028116</v>
       </c>
       <c r="Q10">
-        <v>0.7017244735455556</v>
+        <v>0.7017244735455554</v>
       </c>
       <c r="R10">
-        <v>6.315520261910001</v>
+        <v>6.315520261909999</v>
       </c>
       <c r="S10">
-        <v>0.01538695599825003</v>
+        <v>0.01747054956342154</v>
       </c>
       <c r="T10">
-        <v>0.01538695599825003</v>
+        <v>0.01747054956342154</v>
       </c>
     </row>
   </sheetData>
